--- a/クリックポスト発送情報/20200907112034/英子日本发货表格9.6.xlsx
+++ b/クリックポスト発送情報/20200907112034/英子日本发货表格9.6.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>序号</t>
   </si>
@@ -116,6 +116,18 @@
   </si>
   <si>
     <t>09056289597</t>
+  </si>
+  <si>
+    <t>628593992994</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>628593992983</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>628593992972</t>
+    <phoneticPr fontId="11"/>
   </si>
 </sst>
 </file>
@@ -123,7 +135,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="000000"/>
+    <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -314,13 +326,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1185,7 +1197,9 @@
         <v>17</v>
       </c>
       <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+      <c r="K2" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
@@ -1215,7 +1229,9 @@
       <c r="I3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="25"/>
+      <c r="K3" s="25" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:181" ht="121.95" customHeight="1">
       <c r="A4" s="16" t="s">
@@ -1240,7 +1256,9 @@
       <c r="I4" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="25"/>
+      <c r="K4" s="25" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:181" ht="121.95" customHeight="1"/>
     <row r="6" spans="1:181" ht="121.95" customHeight="1"/>
